--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.033021.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.033021.xlsx_with_dialog_acts.xlsx
@@ -1505,12 +1505,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3223,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3299,12 +3299,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5667,12 +5667,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5895,12 +5895,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6579,12 +6579,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6769,12 +6769,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8837,12 +8837,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9369,12 +9369,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9407,12 +9407,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11767,12 +11767,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12071,12 +12071,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12147,12 +12147,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12565,12 +12565,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12873,12 +12873,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13177,12 +13177,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
